--- a/main/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/main/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/main/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1516,7 +1516,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Comparison source", "Applicable consent", "Concomitent Medications", etc.</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-bilan-valueset</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1873,7 +1873,7 @@
     <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Identified issues", "Preliminary results", "Filler order", "Final results", etc.</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/output-tddui-task-bilan-valueset</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
@@ -2255,7 +2255,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="113.34765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.29296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -9475,13 +9475,11 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y62" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -10179,13 +10177,11 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y68" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y68" s="2"/>
+      <c r="Z68" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -10883,13 +10879,11 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y74" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y74" s="2"/>
+      <c r="Z74" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -11587,13 +11581,11 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y80" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y80" s="2"/>
+      <c r="Z80" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -12291,13 +12283,11 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y86" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y86" s="2"/>
+      <c r="Z86" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>78</v>
@@ -12995,13 +12985,11 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y92" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y92" s="2"/>
+      <c r="Z92" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -13699,13 +13687,11 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y98" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y98" s="2"/>
+      <c r="Z98" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>78</v>
@@ -15093,13 +15079,11 @@
         <v>78</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y110" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y110" s="2"/>
+      <c r="Z110" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>78</v>
@@ -15797,13 +15781,11 @@
         <v>78</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y116" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y116" s="2"/>
+      <c r="Z116" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>78</v>

--- a/main/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/main/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/main/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/main/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Task|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -733,7 +733,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
     <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j366-statut-bilan-projet-personnalise-ms</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j366-statut-bilan-projet-personnalise-ms|20250415120000</t>
   </si>
   <si>
     <t>categorieBilan</t>
@@ -1516,7 +1516,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-bilan-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-bilan-valueset|2.2.0-ballot</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1672,7 +1672,7 @@
     <t>Task.input:pieceJointe.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1790,7 +1790,7 @@
     <t>authorReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0)
 </t>
   </si>
   <si>
@@ -1873,7 +1873,7 @@
     <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/output-tddui-task-bilan-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/output-tddui-task-bilan-valueset|2.2.0-ballot</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
@@ -2256,7 +2256,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="113.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/main/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Task|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -733,7 +733,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
     <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j366-statut-bilan-projet-personnalise-ms|20250415120000</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j366-statut-bilan-projet-personnalise-ms</t>
   </si>
   <si>
     <t>categorieBilan</t>
@@ -1516,7 +1516,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-bilan-valueset|2.2.0-ballot</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-bilan-valueset</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1672,7 +1672,7 @@
     <t>Task.input:pieceJointe.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
 </t>
   </si>
   <si>
@@ -1790,7 +1790,7 @@
     <t>authorReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
 </t>
   </si>
   <si>
@@ -1873,7 +1873,7 @@
     <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/output-tddui-task-bilan-valueset|2.2.0-ballot</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/output-tddui-task-bilan-valueset</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
@@ -2256,7 +2256,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="113.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.29296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/main/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Task|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -733,7 +733,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
     <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j366-statut-bilan-projet-personnalise-ms</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j366-statut-bilan-projet-personnalise-ms|20250415120000</t>
   </si>
   <si>
     <t>categorieBilan</t>
@@ -1516,7 +1516,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-bilan-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-bilan-valueset|2.2.0-ballot</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1672,7 +1672,7 @@
     <t>Task.input:pieceJointe.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1790,7 +1790,7 @@
     <t>authorReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0)
 </t>
   </si>
   <si>
@@ -1873,7 +1873,7 @@
     <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/output-tddui-task-bilan-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/output-tddui-task-bilan-valueset|2.2.0-ballot</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
@@ -2256,7 +2256,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="113.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/main/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/main/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
